--- a/Documents/MeasuresForAPI.xlsx
+++ b/Documents/MeasuresForAPI.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isl9\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\Hackathon\trunk\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -474,7 +474,7 @@
   <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
